--- a/SnowPro Core/Book2.xlsx
+++ b/SnowPro Core/Book2.xlsx
@@ -5,49 +5,45 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlazarz\OneDrive - IQVIA\Desktop\SnowPro Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlazarz\OneDrive - IQVIA\Desktop\shooting_range_transfer\SnowPro Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFD75D-0ED1-42CD-9C9A-931821F6410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFFB0DA-1EE6-406F-9E09-E6590C321CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{839C3462-1553-4E5C-815E-0E34BF763A69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2 Snowflake Architecture" sheetId="1" r:id="rId1"/>
-    <sheet name="3 Snowflake pricing" sheetId="2" r:id="rId2"/>
-    <sheet name="4 Micro-partitions" sheetId="3" r:id="rId3"/>
-    <sheet name="5 Clustering" sheetId="4" r:id="rId4"/>
-    <sheet name="6 Tables and views" sheetId="5" r:id="rId5"/>
-    <sheet name="7 Stages and storage integratio" sheetId="6" r:id="rId6"/>
-    <sheet name="8 Data Loading" sheetId="7" r:id="rId7"/>
+    <sheet name="1 Snowflake introduction" sheetId="11" r:id="rId1"/>
+    <sheet name="2 Snowflake Architecture" sheetId="1" r:id="rId2"/>
+    <sheet name="3 Snowflake pricing" sheetId="2" r:id="rId3"/>
+    <sheet name="4 Micro-partitions" sheetId="3" r:id="rId4"/>
+    <sheet name="5 Clustering" sheetId="4" r:id="rId5"/>
+    <sheet name="6 Tables and views" sheetId="5" r:id="rId6"/>
+    <sheet name="7 Stages and storage integratio" sheetId="6" r:id="rId7"/>
+    <sheet name="8 Data Loading" sheetId="7" r:id="rId8"/>
+    <sheet name="12 Cache and query performance" sheetId="8" r:id="rId9"/>
+    <sheet name="13 Time-travel" sheetId="10" r:id="rId10"/>
+    <sheet name="14 Access management" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>DDDDD</t>
   </si>
 </sst>
 </file>
@@ -146,7 +142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -198,7 +194,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -399,157 +395,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74AA1D6-5300-4F0D-9F7F-F009384988D5}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>121</v>
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>129</v>
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>171</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>179</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>193</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>215</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>252</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>253</v>
+        <v>150</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>260</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>313</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>349</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>384</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>422</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>424</v>
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>425</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>430</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>235</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>278</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>312</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>327</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>332</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>336</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>372</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>375</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>397</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>396</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>273</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>370</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>398</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>420</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -558,103 +1150,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E37F85-8478-4237-9B7A-254D2F35CC36}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>196</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>326</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>450</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>349</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -663,77 +1330,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F12FCD-A87E-47EB-BCB5-30BD1F65760F}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>324</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>393</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>443</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>326</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -742,99 +1453,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0135C80-E924-4D0A-984D-D5AC169EC445}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>285</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>287</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -843,11 +1535,118 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DD3AE9-0B4B-458B-A2E9-5B197F717373}">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>287</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,81 +1734,93 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>224</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>248</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>259</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>260</v>
       </c>
@@ -1017,30 +1828,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>309</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>361</v>
       </c>
@@ -1048,32 +1862,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>369</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>448</v>
       </c>
@@ -1083,413 +1900,560 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1E244-2F60-4D46-A252-E943034DA4D7}">
-  <dimension ref="A1:B11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>408</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>335</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>339</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>341</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>346</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>348</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>386</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>423</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>436</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>302</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>333</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>363</v>
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>364</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>408</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>427</v>
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF586A-0CD6-4269-AD6D-C5D0D29EA80B}">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>74</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>77</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>107</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>156</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>335</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>339</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>341</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>346</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>348</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>376</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>423</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>436</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>437</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/SnowPro Core/Book2.xlsx
+++ b/SnowPro Core/Book2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlazarz\OneDrive - IQVIA\Desktop\shooting_range_transfer\SnowPro Core\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFFB0DA-1EE6-406F-9E09-E6590C321CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1 Snowflake introduction" sheetId="11" r:id="rId1"/>
@@ -21,9 +15,12 @@
     <sheet name="6 Tables and views" sheetId="5" r:id="rId6"/>
     <sheet name="7 Stages and storage integratio" sheetId="6" r:id="rId7"/>
     <sheet name="8 Data Loading" sheetId="7" r:id="rId8"/>
-    <sheet name="12 Cache and query performance" sheetId="8" r:id="rId9"/>
-    <sheet name="13 Time-travel" sheetId="10" r:id="rId10"/>
-    <sheet name="14 Access management" sheetId="9" r:id="rId11"/>
+    <sheet name="9 PUT and GET command" sheetId="12" r:id="rId9"/>
+    <sheet name="10 Data Warehouses" sheetId="13" r:id="rId10"/>
+    <sheet name="11 Resource monitors" sheetId="14" r:id="rId11"/>
+    <sheet name="12 Cache and query performance" sheetId="8" r:id="rId12"/>
+    <sheet name="13 Time-travel" sheetId="10" r:id="rId13"/>
+    <sheet name="14 Access management" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
@@ -49,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,53 +385,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>56</v>
       </c>
@@ -442,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
@@ -450,57 +447,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>150</v>
       </c>
@@ -508,32 +505,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>192</v>
       </c>
@@ -541,17 +538,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>214</v>
       </c>
@@ -559,17 +556,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>225</v>
       </c>
@@ -577,12 +574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>235</v>
       </c>
@@ -590,27 +587,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>278</v>
       </c>
@@ -618,42 +615,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>312</v>
       </c>
@@ -661,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>327</v>
       </c>
@@ -669,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>332</v>
       </c>
@@ -677,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>336</v>
       </c>
@@ -685,12 +682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>372</v>
       </c>
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>375</v>
       </c>
@@ -706,22 +703,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>397</v>
       </c>
@@ -729,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>400</v>
       </c>
@@ -740,154 +737,325 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>231</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>396</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>435</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>254</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>347</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>406</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>407</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -896,24 +1064,319 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>396</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>435</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>239</v>
       </c>
@@ -921,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>52</v>
       </c>
@@ -929,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>55</v>
       </c>
@@ -937,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59</v>
       </c>
@@ -945,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>70</v>
       </c>
@@ -953,27 +1416,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>169</v>
       </c>
@@ -981,12 +1444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>205</v>
       </c>
@@ -997,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>213</v>
       </c>
@@ -1008,22 +1471,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>273</v>
       </c>
@@ -1031,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>274</v>
       </c>
@@ -1039,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>280</v>
       </c>
@@ -1047,17 +1510,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>329</v>
       </c>
@@ -1068,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>342</v>
       </c>
@@ -1076,17 +1539,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>370</v>
       </c>
@@ -1097,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>398</v>
       </c>
@@ -1108,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>401</v>
       </c>
@@ -1116,22 +1579,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>420</v>
       </c>
@@ -1139,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>421</v>
       </c>
@@ -1150,16 +1613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1167,32 +1630,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>121</v>
       </c>
@@ -1200,27 +1663,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>153</v>
       </c>
@@ -1228,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>163</v>
       </c>
@@ -1239,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>171</v>
       </c>
@@ -1250,32 +1713,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>260</v>
       </c>
@@ -1286,12 +1749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>349</v>
       </c>
@@ -1299,27 +1762,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>430</v>
       </c>
@@ -1330,14 +1793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1453,14 +1916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1535,14 +1998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1642,16 +2105,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>28</v>
       </c>
@@ -1659,112 +2122,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>224</v>
       </c>
@@ -1775,12 +2238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>229</v>
       </c>
@@ -1791,12 +2254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>248</v>
       </c>
@@ -1807,12 +2270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>259</v>
       </c>
@@ -1820,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>260</v>
       </c>
@@ -1828,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>309</v>
       </c>
@@ -1839,22 +2302,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>361</v>
       </c>
@@ -1862,12 +2325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>369</v>
       </c>
@@ -1875,22 +2338,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>448</v>
       </c>
@@ -1901,14 +2364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1998,36 +2461,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>35</v>
       </c>
@@ -2035,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>37</v>
       </c>
@@ -2046,12 +2509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>45</v>
       </c>
@@ -2059,12 +2522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>69</v>
       </c>
@@ -2072,17 +2535,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>81</v>
       </c>
@@ -2093,12 +2556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>118</v>
       </c>
@@ -2106,12 +2569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>126</v>
       </c>
@@ -2119,32 +2582,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>156</v>
       </c>
@@ -2152,17 +2615,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>180</v>
       </c>
@@ -2170,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>182</v>
       </c>
@@ -2178,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>189</v>
       </c>
@@ -2186,72 +2649,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>335</v>
       </c>
@@ -2262,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>339</v>
       </c>
@@ -2270,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>341</v>
       </c>
@@ -2278,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>346</v>
       </c>
@@ -2289,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>348</v>
       </c>
@@ -2300,17 +2763,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>376</v>
       </c>
@@ -2318,12 +2781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>386</v>
       </c>
@@ -2331,12 +2794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>423</v>
       </c>
@@ -2347,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>436</v>
       </c>
@@ -2355,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>437</v>
       </c>
@@ -2366,94 +2829,58 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>244</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>323</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/SnowPro Core/Book2.xlsx
+++ b/SnowPro Core/Book2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlazarz\OneDrive - IQVIA\Desktop\shooting_range_transfer\SnowPro Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B12389-F071-48F5-89C8-9DE3ABF87910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Snowflake introduction" sheetId="11" r:id="rId1"/>
@@ -21,6 +27,8 @@
     <sheet name="12 Cache and query performance" sheetId="8" r:id="rId12"/>
     <sheet name="13 Time-travel" sheetId="10" r:id="rId13"/>
     <sheet name="14 Access management" sheetId="9" r:id="rId14"/>
+    <sheet name="15 Data Sharing" sheetId="15" r:id="rId15"/>
+    <sheet name="16 Stored procedures and UDF" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
@@ -46,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,53 +393,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>56</v>
       </c>
@@ -439,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
@@ -447,57 +455,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>150</v>
       </c>
@@ -505,32 +513,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>192</v>
       </c>
@@ -538,17 +546,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>214</v>
       </c>
@@ -556,17 +564,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>225</v>
       </c>
@@ -574,12 +582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>235</v>
       </c>
@@ -587,27 +595,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>278</v>
       </c>
@@ -615,42 +623,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>312</v>
       </c>
@@ -658,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>327</v>
       </c>
@@ -666,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>332</v>
       </c>
@@ -674,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>336</v>
       </c>
@@ -682,12 +690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>372</v>
       </c>
@@ -695,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>375</v>
       </c>
@@ -703,22 +711,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>397</v>
       </c>
@@ -726,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>400</v>
       </c>
@@ -737,31 +745,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>17</v>
       </c>
@@ -769,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25</v>
       </c>
@@ -777,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>26</v>
       </c>
@@ -785,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>29</v>
       </c>
@@ -793,42 +801,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>80</v>
       </c>
@@ -836,17 +844,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>99</v>
       </c>
@@ -854,22 +862,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>119</v>
       </c>
@@ -877,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>120</v>
       </c>
@@ -885,17 +893,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>139</v>
       </c>
@@ -903,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>146</v>
       </c>
@@ -911,12 +919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>209</v>
       </c>
@@ -924,17 +932,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>247</v>
       </c>
@@ -942,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>254</v>
       </c>
@@ -950,17 +958,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>288</v>
       </c>
@@ -968,27 +976,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>347</v>
       </c>
@@ -996,12 +1004,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>353</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>357</v>
       </c>
@@ -1017,22 +1025,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>362</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>406</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>407</v>
       </c>
@@ -1048,12 +1056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>433</v>
       </c>
@@ -1064,26 +1072,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>268</v>
       </c>
@@ -1091,12 +1099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>360</v>
       </c>
@@ -1107,14 +1115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1203,14 +1211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1359,24 +1367,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>239</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>52</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>55</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1416,27 +1424,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>169</v>
       </c>
@@ -1444,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>205</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>213</v>
       </c>
@@ -1471,22 +1479,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>273</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>274</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>280</v>
       </c>
@@ -1510,17 +1518,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>329</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>342</v>
       </c>
@@ -1539,17 +1547,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>370</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>398</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>401</v>
       </c>
@@ -1579,22 +1587,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>420</v>
       </c>
@@ -1602,9 +1610,248 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A1F5E3-35DC-4724-8FCE-E7812CB9CB4B}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>325</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>446</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09FC002-7AC4-43E2-9490-76B65A6D3B58}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>438</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1613,16 +1860,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1630,32 +1877,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>121</v>
       </c>
@@ -1663,27 +1910,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>153</v>
       </c>
@@ -1691,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>163</v>
       </c>
@@ -1702,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>171</v>
       </c>
@@ -1713,32 +1960,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>260</v>
       </c>
@@ -1749,12 +1996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>349</v>
       </c>
@@ -1762,27 +2009,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>430</v>
       </c>
@@ -1793,14 +2040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1916,14 +2163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -1998,14 +2245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -2105,16 +2352,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>28</v>
       </c>
@@ -2122,112 +2369,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>224</v>
       </c>
@@ -2238,12 +2485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>229</v>
       </c>
@@ -2254,12 +2501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>248</v>
       </c>
@@ -2270,12 +2517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>259</v>
       </c>
@@ -2283,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>260</v>
       </c>
@@ -2291,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>309</v>
       </c>
@@ -2302,22 +2549,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>361</v>
       </c>
@@ -2325,12 +2572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>369</v>
       </c>
@@ -2338,22 +2585,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>448</v>
       </c>
@@ -2364,14 +2611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -2461,36 +2708,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>35</v>
       </c>
@@ -2498,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>37</v>
       </c>
@@ -2509,12 +2756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>45</v>
       </c>
@@ -2522,12 +2769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>69</v>
       </c>
@@ -2535,17 +2782,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>81</v>
       </c>
@@ -2556,12 +2803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>118</v>
       </c>
@@ -2569,12 +2816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>126</v>
       </c>
@@ -2582,32 +2829,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>156</v>
       </c>
@@ -2615,17 +2862,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>180</v>
       </c>
@@ -2633,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>182</v>
       </c>
@@ -2641,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>189</v>
       </c>
@@ -2649,72 +2896,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>335</v>
       </c>
@@ -2725,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>339</v>
       </c>
@@ -2733,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>341</v>
       </c>
@@ -2741,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>346</v>
       </c>
@@ -2752,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>348</v>
       </c>
@@ -2763,17 +3010,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>376</v>
       </c>
@@ -2781,12 +3028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>386</v>
       </c>
@@ -2794,12 +3041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>423</v>
       </c>
@@ -2810,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>436</v>
       </c>
@@ -2818,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>437</v>
       </c>
@@ -2829,56 +3076,56 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>439</v>
       </c>
